--- a/biology/Zoologie/Episcada_hymen/Episcada_hymen.xlsx
+++ b/biology/Zoologie/Episcada_hymen/Episcada_hymen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada hymen est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Episcada.
 </t>
@@ -511,14 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Episcada hymen a été décrit par Richard Haensch en 1905.
-Synonyme : Ceratiscada hymen ; [EcuL]; Lamas, 1999[1].
-Sous-espèces
-Episcada hymen hymen
-Episcada hymen ssp
-Episcada hymen ssp</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada hymen a été décrit par Richard Haensch en 1905.
+Synonyme : Ceratiscada hymen ; [EcuL]; Lamas, 1999.
+</t>
         </is>
       </c>
     </row>
@@ -543,14 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Episcada hymen est un papillon à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave.
-Les ailes sont transparentes avec de très fines veines marron et une bordure marron et sur les ailes antérieures une plage jaune très pâle après la cellule bordée de marron depuis le bord costal.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Episcada hymen hymen
+Episcada hymen ssp
+Episcada hymen ssp</t>
         </is>
       </c>
     </row>
@@ -575,10 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada hymen est un papillon à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave.
+Les ailes sont transparentes avec de très fines veines marron et une bordure marron et sur les ailes antérieures une plage jaune très pâle après la cellule bordée de marron depuis le bord costal.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,15 +626,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Episcada_hymen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_hymen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada hymen est présent en Bolivie, en Équateur et au Pérou[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada hymen est présent en Bolivie, en Équateur et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Episcada_hymen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_hymen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Episcada hymen, sur Wikimedia CommonsEpiscada hymen, sur Wikispecies
 </t>
